--- a/output_analysis/START_4_SEC_2.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_2.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
@@ -434,535 +434,540 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>36 48 62 86 110 270</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 19 43 122 254</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>40 82 109 261</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8 41 50 62 66 76 161</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>46 68 74 93 160</t>
-        </is>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>44 82 90 121 148 167 240</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E4" t="n">
         <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>83 108 129 136 175</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>130 156 180 199</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>39 55 68 102 158</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>54 69 89</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>57 72 116 128 140</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>87</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>113 127 151 186</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>138 162 200 226</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 15 23 38 64 143 164</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>99</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 25 47 84</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>90</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16 46 92 99 111</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82</v>
+      </c>
+      <c r="E14" t="n">
+        <v>98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27 32 51 150</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>87</v>
+      </c>
+      <c r="E15" t="n">
+        <v>98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>23</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>133 171 177 191 235</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>34 97 106 131 258</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>98 107 153 173 243</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>74</v>
+      </c>
+      <c r="E18" t="n">
+        <v>98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>142 165 204 209 266 300</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83</v>
+      </c>
+      <c r="E19" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>146 168 188</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="D21" t="n">
+        <v>66</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
         <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>50 126 135 165</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>73</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>138 159 172 238 258</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15 49 100 134 161 193</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>98</v>
-      </c>
-      <c r="E7" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>98</v>
-      </c>
-      <c r="G7" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17 56 73 132</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>98</v>
-      </c>
-      <c r="E8" t="n">
-        <v>76</v>
-      </c>
-      <c r="F8" t="n">
-        <v>98</v>
-      </c>
-      <c r="G8" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>18 77 150</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>77</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>76 103 115 180 183 202</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>88</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>177 188 210 243 254 263 289</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>98</v>
-      </c>
-      <c r="E11" t="n">
-        <v>91</v>
-      </c>
-      <c r="F11" t="n">
-        <v>98</v>
-      </c>
-      <c r="G11" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5 21 34 54 151 256</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>97</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6 12 41 57 72</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>73</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13 19 99 143 155 179</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>94</v>
-      </c>
-      <c r="E14" t="n">
-        <v>88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>94</v>
-      </c>
-      <c r="G14" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>28 59 63 79 92 181</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>74</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>71 104 249</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>90</v>
-      </c>
-      <c r="E16" t="n">
-        <v>68</v>
-      </c>
-      <c r="F16" t="n">
-        <v>90</v>
-      </c>
-      <c r="G16" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>9 52 53 66 75 269</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>96</v>
-      </c>
-      <c r="E17" t="n">
-        <v>84</v>
-      </c>
-      <c r="F17" t="n">
-        <v>96</v>
-      </c>
-      <c r="G17" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>11 24 107 141 195</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>93</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>39 174 197 234 248</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" t="n">
-        <v>93</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>113 173 176 196 212 214 227</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" t="n">
-        <v>80</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>239 259</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>86</v>
-      </c>
-      <c r="E21" t="n">
-        <v>47</v>
-      </c>
-      <c r="F21" t="n">
-        <v>86</v>
-      </c>
-      <c r="G21" t="n">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
